--- a/biology/Botanique/Jubilé_du_Prince_de_Monaco/Jubilé_du_Prince_de_Monaco.xlsx
+++ b/biology/Botanique/Jubilé_du_Prince_de_Monaco/Jubilé_du_Prince_de_Monaco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jubil%C3%A9_du_Prince_de_Monaco</t>
+          <t>Jubilé_du_Prince_de_Monaco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Jubilé du Prince de Monaco' est un cultivar de rosier obtenu en l'an 2000  par la rosiériste française Michèle Meilland-Richardier. Il célèbre les cinquante ans du règne du prince Rainier III de Monaco[3] et rappelle les couleurs du drapeau de la principauté.
+'Jubilé du Prince de Monaco' est un cultivar de rosier obtenu en l'an 2000  par la rosiériste française Michèle Meilland-Richardier. Il célèbre les cinquante ans du règne du prince Rainier III de Monaco et rappelle les couleurs du drapeau de la principauté.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jubil%C3%A9_du_Prince_de_Monaco</t>
+          <t>Jubilé_du_Prince_de_Monaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier est remarquable par ses grandes fleurs doubles et bicolores (9 cm à 10 cm) : couleur blanc-crème bordée de rouge rubis[4], à 36 pétales (35-40). Sa floraison est abondante de juin à fin octobre. Le buisson vert foncé extrêmement sain s'élève de 70 cm à 80 cm[5] pour une envergure de 50 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier est remarquable par ses grandes fleurs doubles et bicolores (9 cm à 10 cm) : couleur blanc-crème bordée de rouge rubis, à 36 pétales (35-40). Sa floraison est abondante de juin à fin octobre. Le buisson vert foncé extrêmement sain s'élève de 70 cm à 80 cm pour une envergure de 50 cm.
 Il a besoin d'une exposition ensoleillée. La taille de fin d'automne est une taille longue d'entretien non obligatoire, et celle du tout début du printemps se pratique à trois à cinq yeux selon la force de la branche. Très rustique (zone de rusticité 6b à 9b), il est également parfait pour les massifs et les bordures, ainsi que pour la culture en pot.
 Il est issu d'un semis 'Jacqueline Nebout' x pollen ('Tamango' (Meilland 1965) x 'Matangi') 
 			Rose en bouton
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jubil%C3%A9_du_Prince_de_Monaco</t>
+          <t>Jubilé_du_Prince_de_Monaco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or à Buenos Aires, 2000
 Médaille d'or à Madrid, 2000
 Certificat du Mérite à Orléans, 2002
-All-America Rose Selections, 2003[6]
+All-America Rose Selections, 2003
 Rose d'or à Rose Hill (États-Unis), 2006</t>
         </is>
       </c>
